--- a/堆芯图.xlsx
+++ b/堆芯图.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="432">
   <si>
     <t>R</t>
   </si>
@@ -1035,6 +1036,282 @@
   </si>
   <si>
     <t>R004</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>K09</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>K03</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>N11</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>K05</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>L08</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>N12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>J08</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>J02</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>J04</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>J06</t>
+  </si>
+  <si>
+    <t>K07</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>K02</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H07</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1705,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2215,8 +2492,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3508,4 +3785,859 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="S3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="S6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>